--- a/data/trans_camb/P13A_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P13A_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +526,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,23 +542,20 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +577,32 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M2/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M3/M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>M2/M1</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>M3/M1</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
         </is>
       </c>
     </row>
@@ -639,9 +618,6 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-18,33</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-28,54</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-37,26</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-37,29</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-11,62</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-18,45</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-8,37</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-11,35</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-9,68</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-19,06</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-14,36</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-16,33</t>
+          <t>1,06</t>
         </is>
       </c>
     </row>
@@ -724,62 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 67,0</t>
+          <t>-0,25; 0,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-90,73; 35,82</t>
+          <t>-0,05; 1,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-92,4; 22,14</t>
+          <t>0,1; 1,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-90,53; 17,16</t>
+          <t>-0,6; 0,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-57,95; 26,8</t>
+          <t>-0,39; 0,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-65,2; 6,72</t>
+          <t>0,58; 2,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-50,94; 17,94</t>
+          <t>-0,34; 0,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-55,64; 14,23</t>
+          <t>-0,12; 0,64</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-49,02; 30,55</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-56,86; 5,27</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-44,23; 10,86</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-52,72; 7,56</t>
+          <t>0,49; 1,67</t>
         </is>
       </c>
     </row>
@@ -792,62 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-35,9%</t>
+          <t>11,43%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-55,87%</t>
+          <t>294,74%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-72,96%</t>
+          <t>531,61%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-73,0%</t>
+          <t>-52,63%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-46,22%</t>
+          <t>36,57%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-73,38%</t>
+          <t>611,81%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-33,3%</t>
+          <t>-31,81%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-45,15%</t>
+          <t>120,19%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-32,15%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-63,28%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>-47,7%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-54,21%</t>
+          <t>587,36%</t>
         </is>
       </c>
     </row>
@@ -885,37 +816,22 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,85; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-81,04; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-84,49; —</t>
+          <t>-61,01; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-91,55; 58,56</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-78,33; 116,06</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-81,57; 83,95</t>
+          <t>83,95; 3374,39</t>
         </is>
       </c>
     </row>
@@ -932,62 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-14,45</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-26,74</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-27,38</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-21,93</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-67,04</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-51,79</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-64,43</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-49,66</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-27,9</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-33,2</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>-39,77</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>-29,74</t>
+          <t>0,29</t>
         </is>
       </c>
     </row>
@@ -1000,62 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-68,53; 51,61</t>
+          <t>-0,86; 0,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-69,85; 10,36</t>
+          <t>-0,88; 0,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-66,46; 9,71</t>
+          <t>-0,23; 1,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-66,1; 13,4</t>
+          <t>-1,01; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,41; 1,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-93,28; 20,62</t>
+          <t>-0,58; 0,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-98,82; 3,79</t>
+          <t>-0,6; 0,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-87,54; 19,14</t>
+          <t>-0,34; 0,63</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-68,27; 27,96</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-67,56; -2,87</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>-74,63; -6,83</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-63,63; 0,79</t>
+          <t>-0,22; 0,86</t>
         </is>
       </c>
     </row>
@@ -1068,62 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-39,62%</t>
+          <t>-48,2%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-73,29%</t>
+          <t>-7,29%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-75,04%</t>
+          <t>171,19%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-60,1%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>94,33%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-77,26%</t>
+          <t>-6,77%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-96,11%</t>
+          <t>-71,32%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-74,07%</t>
+          <t>37,65%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-60,93%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-72,52%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-86,86%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-64,95%</t>
+          <t>92,74%</t>
         </is>
       </c>
     </row>
@@ -1146,12 +1017,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-94,13; —</t>
+          <t>-74,87; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-92,15; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1171,27 +1042,12 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-89,03; —</t>
+          <t>-79,74; 485,14</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-92,73; 3,49</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-95,43; -46,76</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-83,71; 9,27</t>
+          <t>-65,57; 691,77</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
+          <t>0,74</t>
         </is>
       </c>
     </row>
@@ -1296,12 +1137,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,81</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,42; 4,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1311,27 +1152,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,76</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>0,21; 2,07</t>
         </is>
       </c>
     </row>
@@ -1364,42 +1190,27 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1455,21 +1266,6 @@
           <t>—; —</t>
         </is>
       </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1484,62 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-13,51</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-26,23</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-30,2</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-25,86</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-24,73</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-26,4</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-24,48</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-21,37</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-18,26</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>-26,65</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>-26,97</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>-23,38</t>
+          <t>0,72</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-56,99; 38,97</t>
+          <t>-0,36; 0,22</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-62,02; 7,34</t>
+          <t>-0,17; 0,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-68,34; -1,27</t>
+          <t>0,14; 1,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-64,58; 3,14</t>
+          <t>-0,47; 0,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-63,46; 12,23</t>
+          <t>-0,17; 0,6</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-63,6; 1,73</t>
+          <t>0,38; 1,47</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-57,83; 2,27</t>
+          <t>-0,31; 0,06</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-53,23; 6,55</t>
+          <t>-0,07; 0,48</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-47,99; 12,06</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>-51,17; -5,99</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>-52,41; -5,27</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>-47,65; -1,92</t>
+          <t>0,38; 1,14</t>
         </is>
       </c>
     </row>
@@ -1620,62 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-33,93%</t>
+          <t>-30,87%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-65,89%</t>
+          <t>81,34%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-75,85%</t>
+          <t>276,61%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-64,96%</t>
+          <t>-75,28%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-68,62%</t>
+          <t>96,58%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-73,27%</t>
+          <t>393,53%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-67,93%</t>
+          <t>-54,91%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-59,32%</t>
+          <t>89,58%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-48,47%</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>-70,72%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>-71,59%</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>-62,04%</t>
+          <t>339,82%</t>
         </is>
       </c>
     </row>
@@ -1693,69 +1444,61 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-91,07; 51,21</t>
+          <t>-67,0; 1096,53</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-90,66; -5,29</t>
+          <t>-9,19; 1419,74</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-85,77; 23,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,52; 693,42</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-92,44; 43,2</t>
+          <t>48,33; 1505,98</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-86,16; 26,67</t>
+          <t>-100,0; 100,04</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-81,04; 82,24</t>
+          <t>-30,09; 447,26</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 71,21</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>-86,91; -26,89</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>-85,04; -31,42</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>-79,41; -12,53</t>
+          <t>87,37; 1003,79</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
